--- a/TC_CreateNewSalesOrder/Main.rvl.xlsx
+++ b/TC_CreateNewSalesOrder/Main.rvl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="279">
   <si>
     <t>Flow</t>
   </si>
@@ -829,6 +829,30 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>MaximizeWindow</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>FilterGrid</t>
+  </si>
+  <si>
+    <t>PrintPdf</t>
   </si>
 </sst>
 </file>
@@ -849,7 +873,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1368">
+  <borders count="1421">
     <border>
       <left/>
       <right/>
@@ -2224,11 +2248,64 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1368">
+  <cellXfs count="1421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -3597,6 +3674,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1365" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1366" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1367" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1368" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1369" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1370" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1371" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1372" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1373" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1374" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1375" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1376" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1377" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1378" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1379" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1380" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1381" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1382" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1383" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1384" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1385" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1386" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1387" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1388" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1389" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1390" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1391" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1392" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1393" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1394" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1395" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1396" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1397" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1398" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1399" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1400" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1401" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1402" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1403" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1404" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1405" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1406" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1407" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1408" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1409" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1410" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1411" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1412" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1413" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1414" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1415" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1416" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1417" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1418" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1419" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1420" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3606,7 +3736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3773,226 +3903,257 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="504"/>
+      <c r="A12" s="501" t="s">
+        <v>77</v>
+      </c>
       <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="502"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="132" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="136"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="533" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="534" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="535" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="536" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="505"/>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="506"/>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="507"/>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="501" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="502"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18" t="s">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="132" t="s">
+      <c r="C23" s="147" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="133" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="134" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="135" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="136"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="533" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
+      <c r="E23" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="152"/>
     </row>
     <row r="24">
-      <c r="A24" s="534" t="s">
-        <v>7</v>
-      </c>
+      <c r="A24" s="1128"/>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -4005,236 +4166,154 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="535" t="s">
-        <v>7</v>
-      </c>
+      <c r="A25" s="1129"/>
       <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1130"/>
+      <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="536" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1131"/>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1132"/>
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="147" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="148" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="150" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="152"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1128"/>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1129"/>
-      <c r="B29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" t="s">
-        <v>183</v>
-      </c>
+      <c r="A29" s="153"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="160"/>
     </row>
     <row r="30">
-      <c r="A30" s="1130"/>
+      <c r="A30" s="537"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1131"/>
+      <c r="A31" s="538"/>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1132"/>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" t="s">
-        <v>183</v>
-      </c>
+      <c r="A32" s="544"/>
     </row>
     <row r="33">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="160"/>
+      <c r="A33" s="545" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="537"/>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="538"/>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="544"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="545" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="546"/>
+      <c r="A34" s="546"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4242,7 +4321,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H107"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -4447,141 +4526,151 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1263"/>
+      <c r="A15" s="1260" t="s">
+        <v>77</v>
+      </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1264"/>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>94</v>
-      </c>
+      <c r="A16" s="1261"/>
     </row>
     <row r="17">
-      <c r="A17" s="1265"/>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" t="s">
-        <v>97</v>
-      </c>
+      <c r="A17" s="1239"/>
     </row>
     <row r="18">
-      <c r="A18" s="1266"/>
+      <c r="A18" s="843"/>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
         <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1260" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
+      <c r="A19" s="844"/>
     </row>
     <row r="20">
-      <c r="A20" s="1261"/>
+      <c r="A20" s="1271" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1239"/>
+      <c r="A21" s="1272" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="843"/>
+      <c r="A22" s="845"/>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>275</v>
       </c>
       <c r="E22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="846"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="434" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
         <v>159</v>
       </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="844"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1271" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1272" t="s">
-        <v>61</v>
+      <c r="A25" s="804" t="s">
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -4590,271 +4679,293 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="845"/>
+      <c r="A26" s="805" t="s">
+        <v>7</v>
+      </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="806" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="807" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="808" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="846"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="434" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>117</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="804" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30">
+      <c r="A30" s="809" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
         <v>32</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="G29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="805" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="806" t="s">
+      <c r="A31" s="810" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="811" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>30</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="812" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="807" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="813" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="814" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="808" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="809" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>14</v>
       </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="810" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="811" t="s">
+      <c r="A36" s="815" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="816" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
         <v>80</v>
       </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="812" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="813" t="s">
+      <c r="A38" s="817" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
@@ -4877,7 +4988,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="814" t="s">
+      <c r="A39" s="818" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
@@ -4896,18 +5007,18 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="815" t="s">
+      <c r="A40" s="819" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -4923,53 +5034,53 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="816" t="s">
-        <v>7</v>
+      <c r="A41" s="1311" t="s">
+        <v>100</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="817" t="s">
+      <c r="A42" s="1312" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="818" t="s">
+      <c r="A43" s="1313" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
@@ -4982,27 +5093,27 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="819" t="s">
-        <v>7</v>
+      <c r="A44" s="1314" t="s">
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -5015,57 +5126,55 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1311" t="s">
-        <v>100</v>
-      </c>
+      <c r="A45" s="1317"/>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="G45" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1312" t="s">
+      <c r="A46" s="1315" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1313" t="s">
-        <v>7</v>
+      <c r="A47" s="1316" t="s">
+        <v>263</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -5074,21 +5183,21 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>262</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1314" t="s">
+      <c r="A48" s="1319" t="s">
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -5107,7 +5216,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1317"/>
+      <c r="A49" s="1322"/>
       <c r="B49" t="s">
         <v>3</v>
       </c>
@@ -5128,7 +5237,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1315" t="s">
+      <c r="A50" s="1320" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
@@ -5147,15 +5256,15 @@
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1316" t="s">
-        <v>263</v>
+      <c r="A51" s="1321" t="s">
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -5174,324 +5283,326 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1319" t="s">
+      <c r="A52" s="824" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1325"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1327" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1330" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1331" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1332" t="s">
         <v>61</v>
       </c>
-      <c r="B52" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1322"/>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" t="s">
-        <v>117</v>
-      </c>
-      <c r="G53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1320" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1321" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" t="s">
-        <v>265</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="824" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1325"/>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1327" t="s">
-        <v>100</v>
+      <c r="A58" s="1333" t="s">
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="G58" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1330" t="s">
-        <v>7</v>
-      </c>
+      <c r="A59" s="1335"/>
       <c r="B59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1331" t="s">
-        <v>7</v>
-      </c>
+      <c r="A60" s="1336"/>
       <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1337"/>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1338"/>
+      <c r="B62" t="s">
         <v>18</v>
       </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1332" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1333" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" t="s">
-        <v>29</v>
-      </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1335"/>
+      <c r="A63" s="1334" t="s">
+        <v>77</v>
+      </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1336"/>
+      <c r="A64" s="828" t="s">
+        <v>7</v>
+      </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>117</v>
+      </c>
+      <c r="G64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="829" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="830" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1337"/>
-      <c r="B65" t="s">
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="831" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
         <v>3</v>
       </c>
-      <c r="C65" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
         <v>80</v>
       </c>
-      <c r="G65" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1338"/>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1334" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>7</v>
-      </c>
       <c r="G67" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="828" t="s">
+      <c r="A68" s="833" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
@@ -5514,7 +5625,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="829" t="s">
+      <c r="A69" s="834" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
@@ -5533,110 +5644,110 @@
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="830" t="s">
+      <c r="A70" s="835" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="831" t="s">
+      <c r="A71" s="838" t="s">
         <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="G71" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="833" t="s">
+      <c r="A72" s="839" t="s">
         <v>7</v>
       </c>
       <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="851" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
         <v>3</v>
       </c>
-      <c r="C72" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" t="s">
-        <v>117</v>
-      </c>
-      <c r="G72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="834" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>18</v>
-      </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="835" t="s">
+      <c r="A74" s="840" t="s">
         <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
@@ -5648,67 +5759,42 @@
         <v>80</v>
       </c>
       <c r="G74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="838" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="A75" s="1274"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1275"/>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="839" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>32</v>
-      </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="G76" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="851" t="s">
-        <v>7</v>
+      <c r="A77" s="1270" t="s">
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -5721,371 +5807,304 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="840" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" t="s">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s">
-        <v>244</v>
-      </c>
+      <c r="A78" s="191"/>
+      <c r="B78" s="192"/>
+      <c r="C78" s="193"/>
+      <c r="D78" s="194"/>
+      <c r="E78" s="195"/>
+      <c r="F78" s="196"/>
+      <c r="G78" s="197"/>
+      <c r="H78" s="198"/>
     </row>
     <row r="79">
-      <c r="A79" s="1274"/>
+      <c r="A79" s="199"/>
+      <c r="B79" s="200"/>
+      <c r="C79" s="201"/>
+      <c r="D79" s="202"/>
+      <c r="E79" s="203"/>
+      <c r="F79" s="204"/>
+      <c r="G79" s="205"/>
+      <c r="H79" s="206"/>
     </row>
     <row r="80">
-      <c r="A80" s="1275"/>
-      <c r="B80" t="s">
-        <v>110</v>
-      </c>
-      <c r="D80" t="s">
-        <v>249</v>
-      </c>
-      <c r="E80" t="s">
-        <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s">
-        <v>142</v>
-      </c>
+      <c r="A80" s="207"/>
+      <c r="B80" s="208"/>
+      <c r="C80" s="209"/>
+      <c r="D80" s="210"/>
+      <c r="E80" s="211"/>
+      <c r="F80" s="212"/>
+      <c r="G80" s="213"/>
+      <c r="H80" s="214"/>
     </row>
     <row r="81">
-      <c r="A81" s="1270" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" t="s">
-        <v>7</v>
-      </c>
+      <c r="A81" s="215"/>
+      <c r="B81" s="216"/>
+      <c r="C81" s="217"/>
+      <c r="D81" s="218"/>
+      <c r="E81" s="219"/>
+      <c r="F81" s="220"/>
+      <c r="G81" s="221"/>
+      <c r="H81" s="222"/>
     </row>
     <row r="82">
-      <c r="A82" s="191"/>
-      <c r="B82" s="192"/>
-      <c r="C82" s="193"/>
-      <c r="D82" s="194"/>
-      <c r="E82" s="195"/>
-      <c r="F82" s="196"/>
-      <c r="G82" s="197"/>
-      <c r="H82" s="198"/>
+      <c r="A82" s="223"/>
+      <c r="B82" s="224"/>
+      <c r="C82" s="225"/>
+      <c r="D82" s="226"/>
+      <c r="E82" s="227"/>
+      <c r="F82" s="228"/>
+      <c r="G82" s="229"/>
+      <c r="H82" s="230"/>
     </row>
     <row r="83">
-      <c r="A83" s="199"/>
-      <c r="B83" s="200"/>
-      <c r="C83" s="201"/>
-      <c r="D83" s="202"/>
-      <c r="E83" s="203"/>
-      <c r="F83" s="204"/>
-      <c r="G83" s="205"/>
-      <c r="H83" s="206"/>
+      <c r="A83" s="231"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="233"/>
+      <c r="D83" s="234"/>
+      <c r="E83" s="235"/>
+      <c r="F83" s="236"/>
+      <c r="G83" s="237"/>
+      <c r="H83" s="238"/>
     </row>
     <row r="84">
-      <c r="A84" s="207"/>
-      <c r="B84" s="208"/>
-      <c r="C84" s="209"/>
-      <c r="D84" s="210"/>
-      <c r="E84" s="211"/>
-      <c r="F84" s="212"/>
-      <c r="G84" s="213"/>
-      <c r="H84" s="214"/>
+      <c r="A84" s="239"/>
+      <c r="B84" s="240"/>
+      <c r="C84" s="241"/>
+      <c r="D84" s="242"/>
+      <c r="E84" s="243"/>
+      <c r="F84" s="244"/>
+      <c r="G84" s="245"/>
+      <c r="H84" s="246"/>
     </row>
     <row r="85">
-      <c r="A85" s="215"/>
-      <c r="B85" s="216"/>
-      <c r="C85" s="217"/>
-      <c r="D85" s="218"/>
-      <c r="E85" s="219"/>
-      <c r="F85" s="220"/>
-      <c r="G85" s="221"/>
-      <c r="H85" s="222"/>
+      <c r="A85" s="247"/>
+      <c r="B85" s="248"/>
+      <c r="C85" s="249"/>
+      <c r="D85" s="250"/>
+      <c r="E85" s="251"/>
+      <c r="F85" s="252"/>
+      <c r="G85" s="253"/>
+      <c r="H85" s="254"/>
     </row>
     <row r="86">
-      <c r="A86" s="223"/>
-      <c r="B86" s="224"/>
-      <c r="C86" s="225"/>
-      <c r="D86" s="226"/>
-      <c r="E86" s="227"/>
-      <c r="F86" s="228"/>
-      <c r="G86" s="229"/>
-      <c r="H86" s="230"/>
+      <c r="A86" s="255"/>
+      <c r="B86" s="256"/>
+      <c r="C86" s="257"/>
+      <c r="D86" s="258"/>
+      <c r="E86" s="259"/>
+      <c r="F86" s="260"/>
+      <c r="G86" s="261"/>
+      <c r="H86" s="262"/>
     </row>
     <row r="87">
-      <c r="A87" s="231"/>
-      <c r="B87" s="232"/>
-      <c r="C87" s="233"/>
-      <c r="D87" s="234"/>
-      <c r="E87" s="235"/>
-      <c r="F87" s="236"/>
-      <c r="G87" s="237"/>
-      <c r="H87" s="238"/>
+      <c r="A87" s="263"/>
+      <c r="B87" s="264"/>
+      <c r="C87" s="265"/>
+      <c r="D87" s="266"/>
+      <c r="E87" s="267"/>
+      <c r="F87" s="268"/>
+      <c r="G87" s="269"/>
+      <c r="H87" s="270"/>
     </row>
     <row r="88">
-      <c r="A88" s="239"/>
-      <c r="B88" s="240"/>
-      <c r="C88" s="241"/>
-      <c r="D88" s="242"/>
-      <c r="E88" s="243"/>
-      <c r="F88" s="244"/>
-      <c r="G88" s="245"/>
-      <c r="H88" s="246"/>
+      <c r="A88" s="271"/>
+      <c r="B88" s="272"/>
+      <c r="C88" s="273"/>
+      <c r="D88" s="274"/>
+      <c r="E88" s="275"/>
+      <c r="F88" s="276"/>
+      <c r="G88" s="277"/>
+      <c r="H88" s="278"/>
     </row>
     <row r="89">
-      <c r="A89" s="247"/>
-      <c r="B89" s="248"/>
-      <c r="C89" s="249"/>
-      <c r="D89" s="250"/>
-      <c r="E89" s="251"/>
-      <c r="F89" s="252"/>
-      <c r="G89" s="253"/>
-      <c r="H89" s="254"/>
+      <c r="A89" s="279"/>
+      <c r="B89" s="280"/>
+      <c r="C89" s="281"/>
+      <c r="D89" s="282"/>
+      <c r="E89" s="283"/>
+      <c r="F89" s="284"/>
+      <c r="G89" s="285"/>
+      <c r="H89" s="286"/>
     </row>
     <row r="90">
-      <c r="A90" s="255"/>
-      <c r="B90" s="256"/>
-      <c r="C90" s="257"/>
-      <c r="D90" s="258"/>
-      <c r="E90" s="259"/>
-      <c r="F90" s="260"/>
-      <c r="G90" s="261"/>
-      <c r="H90" s="262"/>
+      <c r="A90" s="287"/>
+      <c r="B90" s="288"/>
+      <c r="C90" s="289"/>
+      <c r="D90" s="290"/>
+      <c r="E90" s="291"/>
+      <c r="F90" s="292"/>
+      <c r="G90" s="293"/>
+      <c r="H90" s="294"/>
     </row>
     <row r="91">
-      <c r="A91" s="263"/>
-      <c r="B91" s="264"/>
-      <c r="C91" s="265"/>
-      <c r="D91" s="266"/>
-      <c r="E91" s="267"/>
-      <c r="F91" s="268"/>
-      <c r="G91" s="269"/>
-      <c r="H91" s="270"/>
+      <c r="A91" s="295"/>
+      <c r="B91" s="296"/>
+      <c r="C91" s="297"/>
+      <c r="D91" s="298"/>
+      <c r="E91" s="299"/>
+      <c r="F91" s="300"/>
+      <c r="G91" s="301"/>
+      <c r="H91" s="302"/>
     </row>
     <row r="92">
-      <c r="A92" s="271"/>
-      <c r="B92" s="272"/>
-      <c r="C92" s="273"/>
-      <c r="D92" s="274"/>
-      <c r="E92" s="275"/>
-      <c r="F92" s="276"/>
-      <c r="G92" s="277"/>
-      <c r="H92" s="278"/>
+      <c r="A92" s="303"/>
+      <c r="B92" s="304"/>
+      <c r="C92" s="305"/>
+      <c r="D92" s="306"/>
+      <c r="E92" s="307"/>
+      <c r="F92" s="308"/>
+      <c r="G92" s="309"/>
+      <c r="H92" s="310"/>
     </row>
     <row r="93">
-      <c r="A93" s="279"/>
-      <c r="B93" s="280"/>
-      <c r="C93" s="281"/>
-      <c r="D93" s="282"/>
-      <c r="E93" s="283"/>
-      <c r="F93" s="284"/>
-      <c r="G93" s="285"/>
-      <c r="H93" s="286"/>
+      <c r="A93" s="311"/>
+      <c r="B93" s="312"/>
+      <c r="C93" s="313"/>
+      <c r="D93" s="314"/>
+      <c r="E93" s="315"/>
+      <c r="F93" s="316"/>
+      <c r="G93" s="317"/>
+      <c r="H93" s="318"/>
     </row>
     <row r="94">
-      <c r="A94" s="287"/>
-      <c r="B94" s="288"/>
-      <c r="C94" s="289"/>
-      <c r="D94" s="290"/>
-      <c r="E94" s="291"/>
-      <c r="F94" s="292"/>
-      <c r="G94" s="293"/>
-      <c r="H94" s="294"/>
+      <c r="A94" s="319"/>
+      <c r="B94" s="320"/>
+      <c r="C94" s="321"/>
+      <c r="D94" s="322"/>
+      <c r="E94" s="323"/>
+      <c r="F94" s="324"/>
+      <c r="G94" s="325"/>
+      <c r="H94" s="326"/>
     </row>
     <row r="95">
-      <c r="A95" s="295"/>
-      <c r="B95" s="296"/>
-      <c r="C95" s="297"/>
-      <c r="D95" s="298"/>
-      <c r="E95" s="299"/>
-      <c r="F95" s="300"/>
-      <c r="G95" s="301"/>
-      <c r="H95" s="302"/>
+      <c r="A95" s="327"/>
+      <c r="B95" s="328"/>
+      <c r="C95" s="329"/>
+      <c r="D95" s="330"/>
+      <c r="E95" s="331"/>
+      <c r="F95" s="332"/>
+      <c r="G95" s="333"/>
+      <c r="H95" s="334"/>
     </row>
     <row r="96">
-      <c r="A96" s="303"/>
-      <c r="B96" s="304"/>
-      <c r="C96" s="305"/>
-      <c r="D96" s="306"/>
-      <c r="E96" s="307"/>
-      <c r="F96" s="308"/>
-      <c r="G96" s="309"/>
-      <c r="H96" s="310"/>
+      <c r="A96" s="335"/>
+      <c r="B96" s="336"/>
+      <c r="C96" s="337"/>
+      <c r="D96" s="338"/>
+      <c r="E96" s="339"/>
+      <c r="F96" s="340"/>
+      <c r="G96" s="341"/>
+      <c r="H96" s="342"/>
     </row>
     <row r="97">
-      <c r="A97" s="311"/>
-      <c r="B97" s="312"/>
-      <c r="C97" s="313"/>
-      <c r="D97" s="314"/>
-      <c r="E97" s="315"/>
-      <c r="F97" s="316"/>
-      <c r="G97" s="317"/>
-      <c r="H97" s="318"/>
+      <c r="A97" s="343"/>
+      <c r="B97" s="344"/>
+      <c r="C97" s="345"/>
+      <c r="D97" s="346"/>
+      <c r="E97" s="347"/>
+      <c r="F97" s="348"/>
+      <c r="G97" s="349"/>
+      <c r="H97" s="350"/>
     </row>
     <row r="98">
-      <c r="A98" s="319"/>
-      <c r="B98" s="320"/>
-      <c r="C98" s="321"/>
-      <c r="D98" s="322"/>
-      <c r="E98" s="323"/>
-      <c r="F98" s="324"/>
-      <c r="G98" s="325"/>
-      <c r="H98" s="326"/>
+      <c r="A98" s="351"/>
+      <c r="B98" s="352"/>
+      <c r="C98" s="353"/>
+      <c r="D98" s="354"/>
+      <c r="E98" s="355"/>
+      <c r="F98" s="356"/>
+      <c r="G98" s="357"/>
+      <c r="H98" s="358"/>
     </row>
     <row r="99">
-      <c r="A99" s="327"/>
-      <c r="B99" s="328"/>
-      <c r="C99" s="329"/>
-      <c r="D99" s="330"/>
-      <c r="E99" s="331"/>
-      <c r="F99" s="332"/>
-      <c r="G99" s="333"/>
-      <c r="H99" s="334"/>
+      <c r="A99" s="359"/>
+      <c r="B99" s="360"/>
+      <c r="C99" s="361"/>
+      <c r="D99" s="362"/>
+      <c r="E99" s="363"/>
+      <c r="F99" s="364"/>
+      <c r="G99" s="365"/>
+      <c r="H99" s="366"/>
     </row>
     <row r="100">
-      <c r="A100" s="335"/>
-      <c r="B100" s="336"/>
-      <c r="C100" s="337"/>
-      <c r="D100" s="338"/>
-      <c r="E100" s="339"/>
-      <c r="F100" s="340"/>
-      <c r="G100" s="341"/>
-      <c r="H100" s="342"/>
+      <c r="A100" s="367"/>
+      <c r="B100" s="368"/>
+      <c r="C100" s="369"/>
+      <c r="D100" s="370"/>
+      <c r="E100" s="371"/>
+      <c r="F100" s="372"/>
+      <c r="G100" s="373"/>
+      <c r="H100" s="374"/>
     </row>
     <row r="101">
-      <c r="A101" s="343"/>
-      <c r="B101" s="344"/>
-      <c r="C101" s="345"/>
-      <c r="D101" s="346"/>
-      <c r="E101" s="347"/>
-      <c r="F101" s="348"/>
-      <c r="G101" s="349"/>
-      <c r="H101" s="350"/>
+      <c r="A101" s="375"/>
+      <c r="B101" s="376"/>
+      <c r="C101" s="377"/>
+      <c r="D101" s="378"/>
+      <c r="E101" s="379"/>
+      <c r="F101" s="380"/>
+      <c r="G101" s="381"/>
+      <c r="H101" s="382"/>
     </row>
     <row r="102">
-      <c r="A102" s="351"/>
-      <c r="B102" s="352"/>
-      <c r="C102" s="353"/>
-      <c r="D102" s="354"/>
-      <c r="E102" s="355"/>
-      <c r="F102" s="356"/>
-      <c r="G102" s="357"/>
-      <c r="H102" s="358"/>
+      <c r="A102" s="383"/>
+      <c r="B102" s="384"/>
+      <c r="C102" s="385"/>
+      <c r="D102" s="386"/>
+      <c r="E102" s="387"/>
+      <c r="F102" s="388"/>
+      <c r="G102" s="389"/>
+      <c r="H102" s="390"/>
     </row>
     <row r="103">
-      <c r="A103" s="359"/>
-      <c r="B103" s="360"/>
-      <c r="C103" s="361"/>
-      <c r="D103" s="362"/>
-      <c r="E103" s="363"/>
-      <c r="F103" s="364"/>
-      <c r="G103" s="365"/>
-      <c r="H103" s="366"/>
+      <c r="A103" s="391"/>
+      <c r="B103" s="392"/>
+      <c r="C103" s="393"/>
+      <c r="D103" s="394"/>
+      <c r="E103" s="395"/>
+      <c r="F103" s="396"/>
+      <c r="G103" s="397"/>
+      <c r="H103" s="398"/>
     </row>
     <row r="104">
-      <c r="A104" s="367"/>
-      <c r="B104" s="368"/>
-      <c r="C104" s="369"/>
-      <c r="D104" s="370"/>
-      <c r="E104" s="371"/>
-      <c r="F104" s="372"/>
-      <c r="G104" s="373"/>
-      <c r="H104" s="374"/>
+      <c r="A104" s="399"/>
+      <c r="B104" s="400"/>
+      <c r="C104" s="401"/>
+      <c r="D104" s="402"/>
+      <c r="E104" s="403"/>
+      <c r="F104" s="404"/>
+      <c r="G104" s="405"/>
+      <c r="H104" s="406"/>
     </row>
     <row r="105">
-      <c r="A105" s="375"/>
-      <c r="B105" s="376"/>
-      <c r="C105" s="377"/>
-      <c r="D105" s="378"/>
-      <c r="E105" s="379"/>
-      <c r="F105" s="380"/>
-      <c r="G105" s="381"/>
-      <c r="H105" s="382"/>
+      <c r="A105" s="407"/>
+      <c r="B105" s="408"/>
+      <c r="C105" s="409"/>
+      <c r="D105" s="410"/>
+      <c r="E105" s="411"/>
+      <c r="F105" s="412"/>
+      <c r="G105" s="413"/>
+      <c r="H105" s="414"/>
     </row>
     <row r="106">
-      <c r="A106" s="383"/>
-      <c r="B106" s="384"/>
-      <c r="C106" s="385"/>
-      <c r="D106" s="386"/>
-      <c r="E106" s="387"/>
-      <c r="F106" s="388"/>
-      <c r="G106" s="389"/>
-      <c r="H106" s="390"/>
+      <c r="A106" s="415"/>
+      <c r="B106" s="416"/>
+      <c r="C106" s="417"/>
+      <c r="D106" s="418"/>
+      <c r="E106" s="419"/>
+      <c r="F106" s="420"/>
+      <c r="G106" s="421"/>
+      <c r="H106" s="422"/>
     </row>
     <row r="107">
-      <c r="A107" s="391"/>
-      <c r="B107" s="392"/>
-      <c r="C107" s="393"/>
-      <c r="D107" s="394"/>
-      <c r="E107" s="395"/>
-      <c r="F107" s="396"/>
-      <c r="G107" s="397"/>
-      <c r="H107" s="398"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="399"/>
-      <c r="B108" s="400"/>
-      <c r="C108" s="401"/>
-      <c r="D108" s="402"/>
-      <c r="E108" s="403"/>
-      <c r="F108" s="404"/>
-      <c r="G108" s="405"/>
-      <c r="H108" s="406"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="407"/>
-      <c r="B109" s="408"/>
-      <c r="C109" s="409"/>
-      <c r="D109" s="410"/>
-      <c r="E109" s="411"/>
-      <c r="F109" s="412"/>
-      <c r="G109" s="413"/>
-      <c r="H109" s="414"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="415"/>
-      <c r="B110" s="416"/>
-      <c r="C110" s="417"/>
-      <c r="D110" s="418"/>
-      <c r="E110" s="419"/>
-      <c r="F110" s="420"/>
-      <c r="G110" s="421"/>
-      <c r="H110" s="422"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="423"/>
-      <c r="B111" s="424"/>
-      <c r="C111" s="425"/>
-      <c r="D111" s="426"/>
-      <c r="E111" s="427"/>
-      <c r="F111" s="428"/>
-      <c r="G111" s="429"/>
-      <c r="H111" s="430"/>
+      <c r="A107" s="423"/>
+      <c r="B107" s="424"/>
+      <c r="C107" s="425"/>
+      <c r="D107" s="426"/>
+      <c r="E107" s="427"/>
+      <c r="F107" s="428"/>
+      <c r="G107" s="429"/>
+      <c r="H107" s="430"/>
     </row>
   </sheetData>
 </worksheet>
@@ -6093,7 +6112,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -6268,569 +6287,509 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1306"/>
+      <c r="A11" s="1303" t="s">
+        <v>77</v>
+      </c>
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1304"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="564"/>
+      <c r="B13" s="565" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="566" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="567" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="568"/>
+      <c r="F13" s="569"/>
+      <c r="G13" s="570"/>
+      <c r="H13" s="571"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="580"/>
+      <c r="B15" s="581" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="582" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="583" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="584"/>
+      <c r="F15" s="585"/>
+      <c r="G15" s="586"/>
+      <c r="H15" s="587"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="628"/>
+      <c r="B16" s="629" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="630" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="631" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="632"/>
+      <c r="F16" s="633"/>
+      <c r="G16" s="634"/>
+      <c r="H16" s="635"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1158"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1159"/>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1165"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1166"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1168"/>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1307"/>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1308"/>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1309"/>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1303" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1304"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="564"/>
-      <c r="B17" s="565" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="566" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="567" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="568"/>
-      <c r="F17" s="569"/>
-      <c r="G17" s="570"/>
-      <c r="H17" s="571"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1276" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="580"/>
-      <c r="B19" s="581" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="582" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="583" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="584"/>
-      <c r="F19" s="585"/>
-      <c r="G19" s="586"/>
-      <c r="H19" s="587"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="628"/>
-      <c r="B20" s="629" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="630" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="631" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="632"/>
-      <c r="F20" s="633"/>
-      <c r="G20" s="634"/>
-      <c r="H20" s="635"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1158"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1159"/>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" t="s">
-        <v>202</v>
-      </c>
+      <c r="A22" s="1160"/>
     </row>
     <row r="23">
-      <c r="A23" s="1165"/>
+      <c r="A23" s="1278" t="s">
+        <v>61</v>
+      </c>
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1280"/>
+      <c r="B24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" t="s">
         <v>123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1166"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" t="s">
-        <v>120</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1168"/>
+      <c r="A25" s="1287" t="s">
+        <v>7</v>
+      </c>
       <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1160"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1278" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>251</v>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1280"/>
-      <c r="B28" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>255</v>
-      </c>
+      <c r="A28" s="1282"/>
     </row>
     <row r="29">
-      <c r="A29" s="1287" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="636"/>
+      <c r="B29" s="637" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" t="s">
-        <v>7</v>
-      </c>
+      <c r="C29" s="638" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="639" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="640"/>
+      <c r="F29" s="641"/>
+      <c r="G29" s="642"/>
+      <c r="H29" s="643"/>
     </row>
     <row r="30">
-      <c r="A30" s="1285" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>254</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>7</v>
-      </c>
+      <c r="A30" s="652" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="653" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="654" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="655" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="656" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="657" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="658" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="659"/>
     </row>
     <row r="31">
-      <c r="A31" s="1286" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s">
-        <v>257</v>
-      </c>
+      <c r="A31" s="660"/>
+      <c r="B31" s="661"/>
+      <c r="C31" s="662"/>
+      <c r="D31" s="663"/>
+      <c r="E31" s="664"/>
+      <c r="F31" s="665"/>
+      <c r="G31" s="666"/>
+      <c r="H31" s="667"/>
     </row>
     <row r="32">
-      <c r="A32" s="1282"/>
+      <c r="A32" s="668"/>
+      <c r="B32" s="669"/>
+      <c r="C32" s="670"/>
+      <c r="D32" s="671"/>
+      <c r="E32" s="672"/>
+      <c r="F32" s="673"/>
+      <c r="G32" s="674"/>
+      <c r="H32" s="675"/>
     </row>
     <row r="33">
-      <c r="A33" s="636"/>
-      <c r="B33" s="637" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="638" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="639" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="640"/>
-      <c r="F33" s="641"/>
-      <c r="G33" s="642"/>
-      <c r="H33" s="643"/>
+      <c r="A33" s="676"/>
+      <c r="B33" s="677"/>
+      <c r="C33" s="678"/>
+      <c r="D33" s="679"/>
+      <c r="E33" s="680"/>
+      <c r="F33" s="681"/>
+      <c r="G33" s="682"/>
+      <c r="H33" s="683"/>
     </row>
     <row r="34">
-      <c r="A34" s="652" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="653" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="654" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="655" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="656" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="657" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="658" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="659"/>
+      <c r="A34" s="684"/>
+      <c r="B34" s="685"/>
+      <c r="C34" s="686"/>
+      <c r="D34" s="687"/>
+      <c r="E34" s="688"/>
+      <c r="F34" s="689"/>
+      <c r="G34" s="690"/>
+      <c r="H34" s="691"/>
     </row>
     <row r="35">
-      <c r="A35" s="660"/>
-      <c r="B35" s="661"/>
-      <c r="C35" s="662"/>
-      <c r="D35" s="663"/>
-      <c r="E35" s="664"/>
-      <c r="F35" s="665"/>
-      <c r="G35" s="666"/>
-      <c r="H35" s="667"/>
+      <c r="A35" s="692"/>
+      <c r="B35" s="693"/>
+      <c r="C35" s="694"/>
+      <c r="D35" s="695"/>
+      <c r="E35" s="696"/>
+      <c r="F35" s="697"/>
+      <c r="G35" s="698"/>
+      <c r="H35" s="699"/>
     </row>
     <row r="36">
-      <c r="A36" s="668"/>
-      <c r="B36" s="669"/>
-      <c r="C36" s="670"/>
-      <c r="D36" s="671"/>
-      <c r="E36" s="672"/>
-      <c r="F36" s="673"/>
-      <c r="G36" s="674"/>
-      <c r="H36" s="675"/>
+      <c r="A36" s="700"/>
+      <c r="B36" s="701"/>
+      <c r="C36" s="702"/>
+      <c r="D36" s="703"/>
+      <c r="E36" s="704"/>
+      <c r="F36" s="705"/>
+      <c r="G36" s="706"/>
+      <c r="H36" s="707"/>
     </row>
     <row r="37">
-      <c r="A37" s="676"/>
-      <c r="B37" s="677"/>
-      <c r="C37" s="678"/>
-      <c r="D37" s="679"/>
-      <c r="E37" s="680"/>
-      <c r="F37" s="681"/>
-      <c r="G37" s="682"/>
-      <c r="H37" s="683"/>
+      <c r="A37" s="708"/>
+      <c r="B37" s="709"/>
+      <c r="C37" s="710"/>
+      <c r="D37" s="711"/>
+      <c r="E37" s="712"/>
+      <c r="F37" s="713"/>
+      <c r="G37" s="714"/>
+      <c r="H37" s="715"/>
     </row>
     <row r="38">
-      <c r="A38" s="684"/>
-      <c r="B38" s="685"/>
-      <c r="C38" s="686"/>
-      <c r="D38" s="687"/>
-      <c r="E38" s="688"/>
-      <c r="F38" s="689"/>
-      <c r="G38" s="690"/>
-      <c r="H38" s="691"/>
+      <c r="A38" s="716"/>
+      <c r="B38" s="717"/>
+      <c r="C38" s="718"/>
+      <c r="D38" s="719"/>
+      <c r="E38" s="720"/>
+      <c r="F38" s="721"/>
+      <c r="G38" s="722"/>
+      <c r="H38" s="723"/>
     </row>
     <row r="39">
-      <c r="A39" s="692"/>
-      <c r="B39" s="693"/>
-      <c r="C39" s="694"/>
-      <c r="D39" s="695"/>
-      <c r="E39" s="696"/>
-      <c r="F39" s="697"/>
-      <c r="G39" s="698"/>
-      <c r="H39" s="699"/>
+      <c r="A39" s="724"/>
+      <c r="B39" s="725"/>
+      <c r="C39" s="726"/>
+      <c r="D39" s="727"/>
+      <c r="E39" s="728"/>
+      <c r="F39" s="729"/>
+      <c r="G39" s="730"/>
+      <c r="H39" s="731"/>
     </row>
     <row r="40">
-      <c r="A40" s="700"/>
-      <c r="B40" s="701"/>
-      <c r="C40" s="702"/>
-      <c r="D40" s="703"/>
-      <c r="E40" s="704"/>
-      <c r="F40" s="705"/>
-      <c r="G40" s="706"/>
-      <c r="H40" s="707"/>
+      <c r="A40" s="732"/>
+      <c r="B40" s="733"/>
+      <c r="C40" s="734"/>
+      <c r="D40" s="735"/>
+      <c r="E40" s="736"/>
+      <c r="F40" s="737"/>
+      <c r="G40" s="738"/>
+      <c r="H40" s="739"/>
     </row>
     <row r="41">
-      <c r="A41" s="708"/>
-      <c r="B41" s="709"/>
-      <c r="C41" s="710"/>
-      <c r="D41" s="711"/>
-      <c r="E41" s="712"/>
-      <c r="F41" s="713"/>
-      <c r="G41" s="714"/>
-      <c r="H41" s="715"/>
+      <c r="A41" s="740"/>
+      <c r="B41" s="741"/>
+      <c r="C41" s="742"/>
+      <c r="D41" s="743"/>
+      <c r="E41" s="744"/>
+      <c r="F41" s="745"/>
+      <c r="G41" s="746"/>
+      <c r="H41" s="747"/>
     </row>
     <row r="42">
-      <c r="A42" s="716"/>
-      <c r="B42" s="717"/>
-      <c r="C42" s="718"/>
-      <c r="D42" s="719"/>
-      <c r="E42" s="720"/>
-      <c r="F42" s="721"/>
-      <c r="G42" s="722"/>
-      <c r="H42" s="723"/>
+      <c r="A42" s="748"/>
+      <c r="B42" s="749"/>
+      <c r="C42" s="750"/>
+      <c r="D42" s="751"/>
+      <c r="E42" s="752"/>
+      <c r="F42" s="753"/>
+      <c r="G42" s="754"/>
+      <c r="H42" s="755"/>
     </row>
     <row r="43">
-      <c r="A43" s="724"/>
-      <c r="B43" s="725"/>
-      <c r="C43" s="726"/>
-      <c r="D43" s="727"/>
-      <c r="E43" s="728"/>
-      <c r="F43" s="729"/>
-      <c r="G43" s="730"/>
-      <c r="H43" s="731"/>
+      <c r="A43" s="756"/>
+      <c r="B43" s="757"/>
+      <c r="C43" s="758"/>
+      <c r="D43" s="759"/>
+      <c r="E43" s="760"/>
+      <c r="F43" s="761"/>
+      <c r="G43" s="762"/>
+      <c r="H43" s="763"/>
     </row>
     <row r="44">
-      <c r="A44" s="732"/>
-      <c r="B44" s="733"/>
-      <c r="C44" s="734"/>
-      <c r="D44" s="735"/>
-      <c r="E44" s="736"/>
-      <c r="F44" s="737"/>
-      <c r="G44" s="738"/>
-      <c r="H44" s="739"/>
+      <c r="A44" s="764"/>
+      <c r="B44" s="765"/>
+      <c r="C44" s="766"/>
+      <c r="D44" s="767"/>
+      <c r="E44" s="768"/>
+      <c r="F44" s="769"/>
+      <c r="G44" s="770"/>
+      <c r="H44" s="771"/>
     </row>
     <row r="45">
-      <c r="A45" s="740"/>
-      <c r="B45" s="741"/>
-      <c r="C45" s="742"/>
-      <c r="D45" s="743"/>
-      <c r="E45" s="744"/>
-      <c r="F45" s="745"/>
-      <c r="G45" s="746"/>
-      <c r="H45" s="747"/>
+      <c r="A45" s="772"/>
+      <c r="B45" s="773"/>
+      <c r="C45" s="774"/>
+      <c r="D45" s="775"/>
+      <c r="E45" s="776"/>
+      <c r="F45" s="777"/>
+      <c r="G45" s="778"/>
+      <c r="H45" s="779"/>
     </row>
     <row r="46">
-      <c r="A46" s="748"/>
-      <c r="B46" s="749"/>
-      <c r="C46" s="750"/>
-      <c r="D46" s="751"/>
-      <c r="E46" s="752"/>
-      <c r="F46" s="753"/>
-      <c r="G46" s="754"/>
-      <c r="H46" s="755"/>
+      <c r="A46" s="780"/>
+      <c r="B46" s="781"/>
+      <c r="C46" s="782"/>
+      <c r="D46" s="783"/>
+      <c r="E46" s="784"/>
+      <c r="F46" s="785"/>
+      <c r="G46" s="786"/>
+      <c r="H46" s="787"/>
     </row>
     <row r="47">
-      <c r="A47" s="756"/>
-      <c r="B47" s="757"/>
-      <c r="C47" s="758"/>
-      <c r="D47" s="759"/>
-      <c r="E47" s="760"/>
-      <c r="F47" s="761"/>
-      <c r="G47" s="762"/>
-      <c r="H47" s="763"/>
+      <c r="A47" s="788"/>
+      <c r="B47" s="789"/>
+      <c r="C47" s="790"/>
+      <c r="D47" s="791"/>
+      <c r="E47" s="792"/>
+      <c r="F47" s="793"/>
+      <c r="G47" s="794"/>
+      <c r="H47" s="795"/>
     </row>
     <row r="48">
-      <c r="A48" s="764"/>
-      <c r="B48" s="765"/>
-      <c r="C48" s="766"/>
-      <c r="D48" s="767"/>
-      <c r="E48" s="768"/>
-      <c r="F48" s="769"/>
-      <c r="G48" s="770"/>
-      <c r="H48" s="771"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="772"/>
-      <c r="B49" s="773"/>
-      <c r="C49" s="774"/>
-      <c r="D49" s="775"/>
-      <c r="E49" s="776"/>
-      <c r="F49" s="777"/>
-      <c r="G49" s="778"/>
-      <c r="H49" s="779"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="780"/>
-      <c r="B50" s="781"/>
-      <c r="C50" s="782"/>
-      <c r="D50" s="783"/>
-      <c r="E50" s="784"/>
-      <c r="F50" s="785"/>
-      <c r="G50" s="786"/>
-      <c r="H50" s="787"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="788"/>
-      <c r="B51" s="789"/>
-      <c r="C51" s="790"/>
-      <c r="D51" s="791"/>
-      <c r="E51" s="792"/>
-      <c r="F51" s="793"/>
-      <c r="G51" s="794"/>
-      <c r="H51" s="795"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="796"/>
-      <c r="B52" s="797"/>
-      <c r="C52" s="798"/>
-      <c r="D52" s="799"/>
-      <c r="E52" s="800"/>
-      <c r="F52" s="801"/>
-      <c r="G52" s="802"/>
-      <c r="H52" s="803"/>
+      <c r="A48" s="796"/>
+      <c r="B48" s="797"/>
+      <c r="C48" s="798"/>
+      <c r="D48" s="799"/>
+      <c r="E48" s="800"/>
+      <c r="F48" s="801"/>
+      <c r="G48" s="802"/>
+      <c r="H48" s="803"/>
     </row>
   </sheetData>
 </worksheet>
@@ -6838,7 +6797,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H63"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -6969,290 +6928,286 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1210"/>
+      <c r="A11" s="1139" t="s">
+        <v>77</v>
+      </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1211"/>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A12" s="1140"/>
     </row>
     <row r="13">
-      <c r="A13" s="1138"/>
+      <c r="A13" s="1226"/>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1141"/>
+      <c r="A14" s="1229"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1139" t="s">
-        <v>77</v>
-      </c>
+      <c r="A15" s="1227"/>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1140"/>
+      <c r="A16" s="1228"/>
     </row>
     <row r="17">
-      <c r="A17" s="1226"/>
-      <c r="B17" t="s">
+      <c r="A17" s="876"/>
+      <c r="B17" s="877" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C17" s="878" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="879" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="880" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="881" t="s">
         <v>14</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="882" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="883"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="884"/>
+      <c r="B18" s="885" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="886" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="887" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="888" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="889" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="890" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1229"/>
-      <c r="B18" t="s">
+      <c r="H18" s="891"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1402"/>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1227"/>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="892"/>
+      <c r="B20" s="893"/>
+      <c r="C20" s="894"/>
+      <c r="D20" s="895"/>
+      <c r="E20" s="896"/>
+      <c r="F20" s="897"/>
+      <c r="G20" s="898"/>
+      <c r="H20" s="899"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="900" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="901" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="902" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="903" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="904" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="905" t="s">
         <v>117</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" s="906" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1228"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="876"/>
-      <c r="B21" s="877" t="s">
+      <c r="H21" s="907"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1191"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="878" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="879" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="880" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="881" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="882" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="883"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="884"/>
-      <c r="B22" s="885" t="s">
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="886" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="887" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="888" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="889" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="890" t="s">
-        <v>202</v>
-      </c>
-      <c r="H22" s="891"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1135"/>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="892"/>
-      <c r="B24" s="893"/>
-      <c r="C24" s="894"/>
-      <c r="D24" s="895"/>
-      <c r="E24" s="896"/>
-      <c r="F24" s="897"/>
-      <c r="G24" s="898"/>
-      <c r="H24" s="899"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="900" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="901" t="s">
+      <c r="C25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1193"/>
+      <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="902" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="903" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="904" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="905" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="906" t="s">
-        <v>202</v>
-      </c>
-      <c r="H25" s="907"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1142" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1191"/>
+      <c r="A27" s="1406"/>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1170" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
+      <c r="A28" s="1151"/>
     </row>
     <row r="29">
-      <c r="A29" s="1148" t="s">
+      <c r="A29" s="1230" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -7268,287 +7223,286 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1193"/>
+      <c r="A30" s="1143" t="s">
+        <v>7</v>
+      </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="908"/>
+      <c r="B32" s="909"/>
+      <c r="C32" s="910"/>
+      <c r="D32" s="911"/>
+      <c r="E32" s="912"/>
+      <c r="F32" s="913"/>
+      <c r="G32" s="914"/>
+      <c r="H32" s="915"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="916"/>
+      <c r="B33" s="917" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="918" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="919" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="920" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="921" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="922" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="923"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="924"/>
+      <c r="B34" s="925" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="926" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="927" t="s">
+        <v>277</v>
+      </c>
+      <c r="E34" s="928" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="929" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="930" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="931"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1415"/>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="940" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="941" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="942" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="943" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="944" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="945" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="946" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="947"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1219"/>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1214"/>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1217"/>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1215"/>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1216"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="948" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="949" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="950" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="951" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="952" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="953" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="954" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="955"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="956"/>
+      <c r="B44" s="957" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="958" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="959" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="960" t="s">
         <v>217</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F44" s="961" t="s">
         <v>14</v>
       </c>
-      <c r="G30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1196"/>
-      <c r="B31" t="s">
+      <c r="G44" s="962" t="s">
+        <v>234</v>
+      </c>
+      <c r="H44" s="963"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1419"/>
+      <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E45" t="s">
         <v>93</v>
-      </c>
-      <c r="F31" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1151"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1230" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1143" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1144" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="908"/>
-      <c r="B36" s="909"/>
-      <c r="C36" s="910"/>
-      <c r="D36" s="911"/>
-      <c r="E36" s="912"/>
-      <c r="F36" s="913"/>
-      <c r="G36" s="914"/>
-      <c r="H36" s="915"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="916"/>
-      <c r="B37" s="917" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="918" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="919" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="920" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="921" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="922" t="s">
-        <v>180</v>
-      </c>
-      <c r="H37" s="923"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="924"/>
-      <c r="B38" s="925" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="926" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="927" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="928" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="929" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="930" t="s">
-        <v>229</v>
-      </c>
-      <c r="H38" s="931"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="932"/>
-      <c r="B39" s="933" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="934"/>
-      <c r="D39" s="935"/>
-      <c r="E39" s="936" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="937" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="938" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="939"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="940" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="941" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="942" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="943" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="944" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="945" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="946" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="947"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1213" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1219"/>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" t="s">
-        <v>238</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1214"/>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" t="s">
-        <v>235</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1217"/>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1215"/>
-      <c r="B45" t="s">
-        <v>116</v>
       </c>
       <c r="F45" t="s">
         <v>117</v>
@@ -7558,278 +7512,211 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1216"/>
+      <c r="A46" s="972" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="973" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="974" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="975" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="976" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="977" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="978" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="979"/>
     </row>
     <row r="47">
-      <c r="A47" s="948" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="949" t="s">
+      <c r="A47" s="1225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="950" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" s="951" t="s">
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="952" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="953" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="954" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="955"/>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="956"/>
-      <c r="B48" s="957" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="958" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="959" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" s="960" t="s">
-        <v>217</v>
-      </c>
-      <c r="F48" s="961" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="962" t="s">
-        <v>234</v>
-      </c>
-      <c r="H48" s="963"/>
+      <c r="A48" s="980"/>
+      <c r="B48" s="981"/>
+      <c r="C48" s="982"/>
+      <c r="D48" s="983"/>
+      <c r="E48" s="984"/>
+      <c r="F48" s="985"/>
+      <c r="G48" s="986"/>
+      <c r="H48" s="987"/>
     </row>
     <row r="49">
-      <c r="A49" s="964"/>
-      <c r="B49" s="965" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="966"/>
-      <c r="D49" s="967"/>
-      <c r="E49" s="968" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="969" t="s">
-        <v>117</v>
-      </c>
-      <c r="G49" s="970" t="s">
-        <v>238</v>
-      </c>
-      <c r="H49" s="971"/>
+      <c r="A49" s="988"/>
+      <c r="B49" s="989"/>
+      <c r="C49" s="990"/>
+      <c r="D49" s="991"/>
+      <c r="E49" s="992"/>
+      <c r="F49" s="993"/>
+      <c r="G49" s="994"/>
+      <c r="H49" s="995"/>
     </row>
     <row r="50">
-      <c r="A50" s="972" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="973" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="974" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="975" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="976" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="977" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="978" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="979"/>
+      <c r="A50" s="996"/>
+      <c r="B50" s="997"/>
+      <c r="C50" s="998"/>
+      <c r="D50" s="999"/>
+      <c r="E50" s="1000"/>
+      <c r="F50" s="1001"/>
+      <c r="G50" s="1002"/>
+      <c r="H50" s="1003"/>
     </row>
     <row r="51">
-      <c r="A51" s="1225" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" t="s">
-        <v>7</v>
-      </c>
+      <c r="A51" s="1004"/>
+      <c r="B51" s="1005"/>
+      <c r="C51" s="1006"/>
+      <c r="D51" s="1007"/>
+      <c r="E51" s="1008"/>
+      <c r="F51" s="1009"/>
+      <c r="G51" s="1010"/>
+      <c r="H51" s="1011"/>
     </row>
     <row r="52">
-      <c r="A52" s="980"/>
-      <c r="B52" s="981"/>
-      <c r="C52" s="982"/>
-      <c r="D52" s="983"/>
-      <c r="E52" s="984"/>
-      <c r="F52" s="985"/>
-      <c r="G52" s="986"/>
-      <c r="H52" s="987"/>
+      <c r="A52" s="1012"/>
+      <c r="B52" s="1013"/>
+      <c r="C52" s="1014"/>
+      <c r="D52" s="1015"/>
+      <c r="E52" s="1016"/>
+      <c r="F52" s="1017"/>
+      <c r="G52" s="1018"/>
+      <c r="H52" s="1019"/>
     </row>
     <row r="53">
-      <c r="A53" s="988"/>
-      <c r="B53" s="989"/>
-      <c r="C53" s="990"/>
-      <c r="D53" s="991"/>
-      <c r="E53" s="992"/>
-      <c r="F53" s="993"/>
-      <c r="G53" s="994"/>
-      <c r="H53" s="995"/>
+      <c r="A53" s="1020"/>
+      <c r="B53" s="1021"/>
+      <c r="C53" s="1022"/>
+      <c r="D53" s="1023"/>
+      <c r="E53" s="1024"/>
+      <c r="F53" s="1025"/>
+      <c r="G53" s="1026"/>
+      <c r="H53" s="1027"/>
     </row>
     <row r="54">
-      <c r="A54" s="996"/>
-      <c r="B54" s="997"/>
-      <c r="C54" s="998"/>
-      <c r="D54" s="999"/>
-      <c r="E54" s="1000"/>
-      <c r="F54" s="1001"/>
-      <c r="G54" s="1002"/>
-      <c r="H54" s="1003"/>
+      <c r="A54" s="1028"/>
+      <c r="B54" s="1029"/>
+      <c r="C54" s="1030"/>
+      <c r="D54" s="1031"/>
+      <c r="E54" s="1032"/>
+      <c r="F54" s="1033"/>
+      <c r="G54" s="1034"/>
+      <c r="H54" s="1035"/>
     </row>
     <row r="55">
-      <c r="A55" s="1004"/>
-      <c r="B55" s="1005"/>
-      <c r="C55" s="1006"/>
-      <c r="D55" s="1007"/>
-      <c r="E55" s="1008"/>
-      <c r="F55" s="1009"/>
-      <c r="G55" s="1010"/>
-      <c r="H55" s="1011"/>
+      <c r="A55" s="1036"/>
+      <c r="B55" s="1037"/>
+      <c r="C55" s="1038"/>
+      <c r="D55" s="1039"/>
+      <c r="E55" s="1040"/>
+      <c r="F55" s="1041"/>
+      <c r="G55" s="1042"/>
+      <c r="H55" s="1043"/>
     </row>
     <row r="56">
-      <c r="A56" s="1012"/>
-      <c r="B56" s="1013"/>
-      <c r="C56" s="1014"/>
-      <c r="D56" s="1015"/>
-      <c r="E56" s="1016"/>
-      <c r="F56" s="1017"/>
-      <c r="G56" s="1018"/>
-      <c r="H56" s="1019"/>
+      <c r="A56" s="1044"/>
+      <c r="B56" s="1045"/>
+      <c r="C56" s="1046"/>
+      <c r="D56" s="1047"/>
+      <c r="E56" s="1048"/>
+      <c r="F56" s="1049"/>
+      <c r="G56" s="1050"/>
+      <c r="H56" s="1051"/>
     </row>
     <row r="57">
-      <c r="A57" s="1020"/>
-      <c r="B57" s="1021"/>
-      <c r="C57" s="1022"/>
-      <c r="D57" s="1023"/>
-      <c r="E57" s="1024"/>
-      <c r="F57" s="1025"/>
-      <c r="G57" s="1026"/>
-      <c r="H57" s="1027"/>
+      <c r="A57" s="1052"/>
+      <c r="B57" s="1053"/>
+      <c r="C57" s="1054"/>
+      <c r="D57" s="1055"/>
+      <c r="E57" s="1056"/>
+      <c r="F57" s="1057"/>
+      <c r="G57" s="1058"/>
+      <c r="H57" s="1059"/>
     </row>
     <row r="58">
-      <c r="A58" s="1028"/>
-      <c r="B58" s="1029"/>
-      <c r="C58" s="1030"/>
-      <c r="D58" s="1031"/>
-      <c r="E58" s="1032"/>
-      <c r="F58" s="1033"/>
-      <c r="G58" s="1034"/>
-      <c r="H58" s="1035"/>
+      <c r="A58" s="1060"/>
+      <c r="B58" s="1061"/>
+      <c r="C58" s="1062"/>
+      <c r="D58" s="1063"/>
+      <c r="E58" s="1064"/>
+      <c r="F58" s="1065"/>
+      <c r="G58" s="1066"/>
+      <c r="H58" s="1067"/>
     </row>
     <row r="59">
-      <c r="A59" s="1036"/>
-      <c r="B59" s="1037"/>
-      <c r="C59" s="1038"/>
-      <c r="D59" s="1039"/>
-      <c r="E59" s="1040"/>
-      <c r="F59" s="1041"/>
-      <c r="G59" s="1042"/>
-      <c r="H59" s="1043"/>
+      <c r="A59" s="1068"/>
+      <c r="B59" s="1069"/>
+      <c r="C59" s="1070"/>
+      <c r="D59" s="1071"/>
+      <c r="E59" s="1072"/>
+      <c r="F59" s="1073"/>
+      <c r="G59" s="1074"/>
+      <c r="H59" s="1075"/>
     </row>
     <row r="60">
-      <c r="A60" s="1044"/>
-      <c r="B60" s="1045"/>
-      <c r="C60" s="1046"/>
-      <c r="D60" s="1047"/>
-      <c r="E60" s="1048"/>
-      <c r="F60" s="1049"/>
-      <c r="G60" s="1050"/>
-      <c r="H60" s="1051"/>
+      <c r="A60" s="1076"/>
+      <c r="B60" s="1077"/>
+      <c r="C60" s="1078"/>
+      <c r="D60" s="1079"/>
+      <c r="E60" s="1080"/>
+      <c r="F60" s="1081"/>
+      <c r="G60" s="1082"/>
+      <c r="H60" s="1083"/>
     </row>
     <row r="61">
-      <c r="A61" s="1052"/>
-      <c r="B61" s="1053"/>
-      <c r="C61" s="1054"/>
-      <c r="D61" s="1055"/>
-      <c r="E61" s="1056"/>
-      <c r="F61" s="1057"/>
-      <c r="G61" s="1058"/>
-      <c r="H61" s="1059"/>
+      <c r="A61" s="1084"/>
+      <c r="B61" s="1085"/>
+      <c r="C61" s="1086"/>
+      <c r="D61" s="1087"/>
+      <c r="E61" s="1088"/>
+      <c r="F61" s="1089"/>
+      <c r="G61" s="1090"/>
+      <c r="H61" s="1091"/>
     </row>
     <row r="62">
-      <c r="A62" s="1060"/>
-      <c r="B62" s="1061"/>
-      <c r="C62" s="1062"/>
-      <c r="D62" s="1063"/>
-      <c r="E62" s="1064"/>
-      <c r="F62" s="1065"/>
-      <c r="G62" s="1066"/>
-      <c r="H62" s="1067"/>
+      <c r="A62" s="1092"/>
+      <c r="B62" s="1093"/>
+      <c r="C62" s="1094"/>
+      <c r="D62" s="1095"/>
+      <c r="E62" s="1096"/>
+      <c r="F62" s="1097"/>
+      <c r="G62" s="1098"/>
+      <c r="H62" s="1099"/>
     </row>
     <row r="63">
-      <c r="A63" s="1068"/>
-      <c r="B63" s="1069"/>
-      <c r="C63" s="1070"/>
-      <c r="D63" s="1071"/>
-      <c r="E63" s="1072"/>
-      <c r="F63" s="1073"/>
-      <c r="G63" s="1074"/>
-      <c r="H63" s="1075"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1076"/>
-      <c r="B64" s="1077"/>
-      <c r="C64" s="1078"/>
-      <c r="D64" s="1079"/>
-      <c r="E64" s="1080"/>
-      <c r="F64" s="1081"/>
-      <c r="G64" s="1082"/>
-      <c r="H64" s="1083"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1084"/>
-      <c r="B65" s="1085"/>
-      <c r="C65" s="1086"/>
-      <c r="D65" s="1087"/>
-      <c r="E65" s="1088"/>
-      <c r="F65" s="1089"/>
-      <c r="G65" s="1090"/>
-      <c r="H65" s="1091"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1092"/>
-      <c r="B66" s="1093"/>
-      <c r="C66" s="1094"/>
-      <c r="D66" s="1095"/>
-      <c r="E66" s="1096"/>
-      <c r="F66" s="1097"/>
-      <c r="G66" s="1098"/>
-      <c r="H66" s="1099"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1100"/>
-      <c r="B67" s="1101"/>
-      <c r="C67" s="1102"/>
-      <c r="D67" s="1103"/>
-      <c r="E67" s="1104"/>
-      <c r="F67" s="1105"/>
-      <c r="G67" s="1106"/>
-      <c r="H67" s="1107"/>
+      <c r="A63" s="1100"/>
+      <c r="B63" s="1101"/>
+      <c r="C63" s="1102"/>
+      <c r="D63" s="1103"/>
+      <c r="E63" s="1104"/>
+      <c r="F63" s="1105"/>
+      <c r="G63" s="1106"/>
+      <c r="H63" s="1107"/>
     </row>
   </sheetData>
 </worksheet>
